--- a/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
+++ b/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milagros\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishin\Desktop\DOCUMENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan #001" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Release Plan #001</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Escenario 02 : Mostrar mensaje Usuario y/o Contraseña incorreccto</t>
-  </si>
-  <si>
-    <t>Escenario 03 : Mostrar mensaje “Su usuario se encuentra bloqueado”</t>
   </si>
   <si>
     <t>Fernando Bustamante</t>
@@ -222,13 +219,7 @@
     <t>Escenario 03 : usuario ya se encuentra registrado</t>
   </si>
   <si>
-    <t>Paginado de Principal</t>
-  </si>
-  <si>
     <t>Agregar paquetes de vuelo</t>
-  </si>
-  <si>
-    <t>Modificar paquetes de vuelo</t>
   </si>
   <si>
     <t>Eliminar paquetes de vuelo</t>
@@ -265,8 +256,34 @@
 password : adminMarceeloo</t>
   </si>
   <si>
-    <t>usuario : admin@hotmail.com
-password: adminMarcelo</t>
+    <t xml:space="preserve">z  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:[Ñ_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotizar paquete de vuelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprar paquete de vuelo </t>
+  </si>
+  <si>
+    <t>Sprint - 003</t>
+  </si>
+  <si>
+    <t>Sprint - 004</t>
+  </si>
+  <si>
+    <t>US-007</t>
+  </si>
+  <si>
+    <t>US-008</t>
+  </si>
+  <si>
+    <t>verificacion check-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realizar reprte de ventas </t>
   </si>
 </sst>
 </file>
@@ -945,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1025,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1045,10 +1062,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1085,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1102,13 +1119,13 @@
         <v>17</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1116,19 +1133,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1136,19 +1153,59 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -1210,10 +1267,10 @@
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="21"/>
@@ -1231,7 +1288,7 @@
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1240,7 +1297,7 @@
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="23"/>
@@ -1249,7 +1306,7 @@
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10"/>
@@ -1258,7 +1315,7 @@
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
@@ -1267,7 +1324,7 @@
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="10"/>
@@ -1278,7 +1335,7 @@
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>24</v>
@@ -1289,7 +1346,7 @@
     <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1297,7 +1354,7 @@
     <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1305,7 +1362,7 @@
     <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="27"/>
@@ -1313,14 +1370,14 @@
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="28"/>
@@ -1328,7 +1385,7 @@
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1370,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,10 +1453,10 @@
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="42"/>
     </row>
@@ -1416,28 +1473,28 @@
     <row r="6" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="36"/>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="36"/>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,10 +1510,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="42"/>
     </row>
@@ -1473,10 +1530,10 @@
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="36"/>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -1485,16 +1542,16 @@
         <v>27</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
+++ b/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishin\Desktop\DOCUMENTO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan #001" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint #001" sheetId="2" r:id="rId2"/>
     <sheet name="Test Plan Sprint 001" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,26 +461,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -496,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,26 +532,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -964,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -979,51 +946,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="1">
         <v>43010</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="1">
         <v>43035</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="1">
         <v>43043</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1101,7 +1068,7 @@
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1121,7 +1088,7 @@
       <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1141,7 +1108,7 @@
       <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="27" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1161,7 +1128,7 @@
       <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="27" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1181,7 +1148,7 @@
       <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="27" t="s">
         <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1201,7 +1168,7 @@
       <c r="E14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="27" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1224,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,61 +1217,61 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="21"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="10"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1280,7 @@
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1289,7 @@
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1331,59 +1298,59 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1391,22 +1358,22 @@
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1452,26 +1419,26 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
@@ -1480,7 +1447,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
@@ -1489,7 +1456,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
@@ -1509,26 +1476,26 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1504,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1513,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>

--- a/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
+++ b/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="5220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan #001" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Test Plan Sprint 001" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G10"/>
+  <oleSize ref="A7:E10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1191,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
+++ b/Integrador_II/src/Documentacion/Proyecto_Sprint_th.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="5220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan #001" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Test Plan Sprint 001" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:E10"/>
+  <oleSize ref="A7:F13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Release Plan #001</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Escenario 02 : Mostrar mensaje Usuario y/o Contraseña incorreccto</t>
-  </si>
-  <si>
     <t>Fernando Bustamante</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
     <t>Sprint #001
 Inicio : 2/10/2017  -  Fin : 13/10/2017
 Capacity : 10 story points</t>
-  </si>
-  <si>
-    <t>US-002
-Login del Sistema
-Story Points : 5
-P.O. : Fernando Bustamante</t>
   </si>
   <si>
     <t>TK-012
@@ -203,9 +194,6 @@
 Campos : Usuario y Contraseña</t>
   </si>
   <si>
-    <t>Escenario 01 : Inicia sesion de forma correcta</t>
-  </si>
-  <si>
     <t>Escenario 01 : se registra correctamente se redirige a pantalla de bienvenida</t>
   </si>
   <si>
@@ -280,6 +268,27 @@
   </si>
   <si>
     <t xml:space="preserve">realizar reprte de ventas </t>
+  </si>
+  <si>
+    <t>US-003 
+REGISTRAR RESERVA
+Story Points : 5
+P.O. : Fernando Bustamante</t>
+  </si>
+  <si>
+    <t>Escenario 04 : Inicia sesion de forma correcta</t>
+  </si>
+  <si>
+    <t>Escenario 05 : Mostrar mensaje Usuario y/o Contraseña incorreccto</t>
+  </si>
+  <si>
+    <t>Reservar Pasajes</t>
+  </si>
+  <si>
+    <t>US-005
+Login del Sistema
+Story Points : 5
+P.O. : Fernando Bustamante</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,6 +560,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,53 +958,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="1">
         <v>43010</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1">
         <v>43035</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="1">
         <v>43043</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1029,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1052,10 +1064,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1069,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1089,18 +1101,18 @@
         <v>5</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
@@ -1109,70 +1121,90 @@
         <v>5</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1191,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,34 +1249,34 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>42</v>
+      <c r="A5" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="10"/>
       <c r="C6" s="21"/>
       <c r="D6" s="10" t="s">
@@ -1253,45 +1285,45 @@
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="10"/>
       <c r="C8" s="22"/>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="10"/>
@@ -1301,8 +1333,8 @@
       <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>34</v>
+      <c r="A13" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1311,48 +1343,48 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1361,19 +1393,19 @@
       <c r="C20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1392,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,49 +1451,49 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="2:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,57 +1508,116 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B23" s="34"/>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:D5"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="C11:D13"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
